--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc202_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc202_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +472,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +519,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +703,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +750,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +796,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -881,10 +905,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -928,28 +952,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -974,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1199,10 +1223,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1246,28 +1270,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1292,28 +1316,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1401,10 +1425,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1448,28 +1472,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1494,28 +1518,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1777,10 +1801,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1824,28 +1848,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1870,28 +1894,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1979,10 +2003,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2026,28 +2050,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2072,28 +2096,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2239,10 +2263,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2286,28 +2310,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2332,28 +2356,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2441,10 +2465,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2488,28 +2512,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2534,28 +2558,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2643,10 +2667,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2690,28 +2714,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2736,28 +2760,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2874,10 +2898,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2921,28 +2945,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2967,28 +2991,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3076,10 +3100,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3123,28 +3147,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3169,28 +3193,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3278,10 +3302,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3325,28 +3349,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3371,28 +3395,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3480,10 +3504,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3527,28 +3551,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3573,28 +3597,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3682,10 +3706,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3729,28 +3753,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3775,28 +3799,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4029,10 +4053,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4076,28 +4100,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4122,28 +4146,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4231,10 +4255,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4278,28 +4302,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4324,28 +4348,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4433,10 +4457,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4480,28 +4504,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4526,28 +4550,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4635,10 +4659,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4682,28 +4706,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4728,28 +4752,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4895,10 +4919,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4942,28 +4966,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4988,28 +5012,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5126,10 +5150,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5173,28 +5197,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5219,28 +5243,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5415,10 +5439,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5462,28 +5486,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5508,28 +5532,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5646,10 +5670,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5693,28 +5717,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5739,28 +5763,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5877,10 +5901,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5924,28 +5948,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5970,28 +5994,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6079,10 +6103,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6126,28 +6150,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6172,28 +6196,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6310,10 +6334,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6357,28 +6381,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6403,28 +6427,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6512,10 +6536,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6559,28 +6583,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="2">
+      <c r="A223" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="2">
+      <c r="C223" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6605,28 +6629,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="2">
+      <c r="C225" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="2">
+      <c r="I225" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6801,10 +6825,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6848,28 +6872,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6894,28 +6918,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7032,10 +7056,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7079,28 +7103,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7125,28 +7149,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7321,10 +7345,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="2" t="s">
+      <c r="J249" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7368,28 +7392,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="2">
+      <c r="A251" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="2">
+      <c r="C251" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7414,28 +7438,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="2">
+      <c r="C253" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="2">
+      <c r="D253" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="2">
+      <c r="I253" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7523,10 +7547,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
